--- a/Cool secrets/Traceability Matrix.xlsx
+++ b/Cool secrets/Traceability Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\EGR\Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netime-planner\Cool secrets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868CC135-F329-4DBE-9157-05A846B86EA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA15E6E3-F532-44B4-B6D4-6F73BEB117C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="26895" windowHeight="13935" xr2:uid="{8D33A2A7-AA60-4842-8A9A-25E8918FCB9B}"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" xr2:uid="{8D33A2A7-AA60-4842-8A9A-25E8918FCB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>REQ001</t>
   </si>
   <si>
-    <t>REQ002</t>
-  </si>
-  <si>
-    <t>REQ003</t>
-  </si>
-  <si>
     <t>REQ004</t>
   </si>
   <si>
@@ -54,15 +48,6 @@
     <t>REQ007</t>
   </si>
   <si>
-    <t>REQ008</t>
-  </si>
-  <si>
-    <t>REQ009</t>
-  </si>
-  <si>
-    <t>REQ010</t>
-  </si>
-  <si>
     <t>UC01</t>
   </si>
   <si>
@@ -135,43 +120,19 @@
     <t>REQ012</t>
   </si>
   <si>
-    <t>REQ013</t>
-  </si>
-  <si>
     <t>REQ014</t>
   </si>
   <si>
-    <t>REQ015</t>
-  </si>
-  <si>
     <t>REQ016</t>
   </si>
   <si>
-    <t>REQ017</t>
-  </si>
-  <si>
     <t>REQ018</t>
   </si>
   <si>
     <t>REQ019</t>
   </si>
   <si>
-    <t>REQ020</t>
-  </si>
-  <si>
-    <t>REQ021</t>
-  </si>
-  <si>
-    <t>REQ022</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>REQ023</t>
-  </si>
-  <si>
-    <t>REQ024</t>
   </si>
   <si>
     <t>REQ025</t>
@@ -190,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,17 +221,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F850046F-FFCC-4256-8085-97FB951FD743}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="N15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,101 +565,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -697,30 +646,30 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -731,30 +680,30 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -765,30 +714,32 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -799,30 +750,34 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -833,30 +788,32 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -867,28 +824,30 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -899,28 +858,30 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -931,28 +892,30 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
       <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -963,28 +926,32 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
       <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="9"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -995,30 +962,30 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1029,30 +996,28 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1063,31 +1028,29 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1097,32 +1060,32 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="O15" s="6"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -1131,33 +1094,33 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="P16" s="6"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -1165,162 +1128,162 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q17" s="6"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
       <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="R18" s="6"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="S19" s="6"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
       <c r="Z19" s="6"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="9"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="T20" s="6"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -1328,33 +1291,33 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="U21" s="6"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -1363,32 +1326,32 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="V22" s="6"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -1398,16 +1361,13 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>